--- a/DE/E3_Despacho_Economico_Basico_Red_Perdidas.xlsx
+++ b/DE/E3_Despacho_Economico_Basico_Red_Perdidas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/MSExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="14_{858CF8A4-39EE-4D41-B063-E9931974F27D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{69DB3417-72C1-D24C-B3DF-ED93692601EC}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="14_{858CF8A4-39EE-4D41-B063-E9931974F27D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DFFD4D0E-C54E-F744-81AE-055B22C7B6A6}"/>
   <bookViews>
-    <workbookView xWindow="37260" yWindow="2580" windowWidth="23360" windowHeight="16660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33500" yWindow="1080" windowWidth="30260" windowHeight="18340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="34" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
   <si>
     <t>Sbase</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>Control</t>
-  </si>
-  <si>
-    <t>Incógnitas</t>
   </si>
   <si>
     <t>Despacho</t>
@@ -769,6 +766,12 @@
   </si>
   <si>
     <t>Caso de Estudio 2</t>
+  </si>
+  <si>
+    <t>Incógnitas pu</t>
+  </si>
+  <si>
+    <t>Control pu</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1103,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1282,6 +1285,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2179,8 +2184,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11579412" y="3163507"/>
-          <a:ext cx="357972" cy="344235"/>
+          <a:off x="11647145" y="3183428"/>
+          <a:ext cx="357972" cy="345232"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
         </a:xfrm>
@@ -2676,8 +2681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13656236" y="3376705"/>
-          <a:ext cx="357972" cy="344235"/>
+          <a:off x="13733930" y="3397125"/>
+          <a:ext cx="354984" cy="345230"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
         </a:xfrm>
@@ -3504,274 +3509,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8F99EF-59D7-4998-9346-6B4594282A91}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42" t="s">
+      <c r="C6" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E6" s="43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0.98521657875212187</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="40">
+        <v>-2.5532049247321949E-2</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D9" s="40">
-        <v>0.98521657875212187</v>
+        <v>-7.625165941774073E-2</v>
       </c>
       <c r="E9" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" s="40">
-        <v>-2.5532049247321949E-2</v>
+        <v>1.0016868057290722</v>
       </c>
       <c r="E10" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D11" s="40">
-        <v>-7.625165941774073E-2</v>
+        <v>0.26629195828807539</v>
       </c>
       <c r="E11" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D12" s="40">
-        <v>1.0016868057290722</v>
+        <v>-2.0615772611423111E-2</v>
       </c>
       <c r="E12" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="40">
+    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="41">
+        <v>0.11050459918361888</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="40">
+        <v>1.0016868057290722</v>
+      </c>
+      <c r="E18" s="83">
+        <v>6003.3574075093247</v>
+      </c>
+      <c r="G18" s="83">
+        <f>E18/200</f>
+        <v>30.016787037546624</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="40">
         <v>0.26629195828807539</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E19" s="83">
+        <v>6065.17041015625</v>
+      </c>
+      <c r="G19" s="83">
+        <f t="shared" ref="G19:G22" si="0">E19/200</f>
+        <v>30.325852050781251</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="40">
+        <v>-1.25</v>
+      </c>
+      <c r="E20" s="83">
+        <v>6192.4147177786226</v>
+      </c>
+      <c r="G20" s="83">
+        <f t="shared" si="0"/>
+        <v>30.962073588893112</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="40">
+        <v>-2.0615772611423111E-2</v>
+      </c>
+      <c r="E21" s="83">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="40">
-        <v>-2.0615772611423111E-2</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="G21" s="83">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="41">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="40">
         <v>0.11050459918361888</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E22" s="83">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="40">
-        <v>1.0016868057290722</v>
-      </c>
-      <c r="E20" s="40">
-        <v>6003.3574075093247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="40">
-        <v>0.26629195828807539</v>
-      </c>
-      <c r="E21" s="40">
-        <v>6065.17041015625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="40">
-        <v>-1.25</v>
-      </c>
-      <c r="E22" s="40">
-        <v>6192.4147177786226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="40">
-        <v>-2.0615772611423111E-2</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="G22" s="83">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="40" t="s">
+    <row r="23" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="40">
-        <v>0.11050459918361888</v>
-      </c>
-      <c r="E24" s="40">
+      <c r="C23" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="41">
-        <v>0</v>
-      </c>
-      <c r="E25" s="41">
+      <c r="E23" s="84">
         <v>10.446206305748646</v>
+      </c>
+      <c r="G23" s="84">
+        <f>E23/200</f>
+        <v>5.2231031528743227E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3783,9 +3826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD140"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3837,16 +3880,16 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
     </row>
     <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -3894,14 +3937,14 @@
       </c>
     </row>
     <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="87"/>
+      <c r="A9" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="89"/>
       <c r="E9" s="7"/>
       <c r="F9" s="19" t="s">
         <v>30</v>
@@ -4056,15 +4099,15 @@
       <c r="D12" s="31">
         <v>-7.6251215952137213E-2</v>
       </c>
-      <c r="E12" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="84"/>
+      <c r="E12" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="86"/>
       <c r="G12" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="50" t="s">
         <v>146</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>147</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -4209,13 +4252,13 @@
         <v>-4.1227711861929661</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -4255,7 +4298,7 @@
         <v>22.100393566166204</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4402,7 +4445,7 @@
         <v>22.100393566166204</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -4466,20 +4509,20 @@
         <v>-4.1227711861929661</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
     <row r="22" spans="1:30" s="7" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
+      <c r="A22" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -4497,23 +4540,23 @@
     </row>
     <row r="23" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="46"/>
       <c r="K23" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -4549,10 +4592,10 @@
         <v>20.083459631558284</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="6">
-        <f>'Sensitivity Report 1'!E20/Sbase</f>
+        <f>'Sensitivity Report 1'!E18/Sbase</f>
         <v>30.016787037546624</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -4589,10 +4632,10 @@
         <v>25.141824539447857</v>
       </c>
       <c r="G25" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="6">
-        <f>'Sensitivity Report 1'!E21/Sbase</f>
+        <f>'Sensitivity Report 1'!E19/Sbase</f>
         <v>30.325852050781251</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -4610,10 +4653,10 @@
       <c r="A26" s="19"/>
       <c r="F26" s="6"/>
       <c r="G26" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" s="6">
-        <f>'Sensitivity Report 1'!E22/Sbase</f>
+        <f>'Sensitivity Report 1'!E20/Sbase</f>
         <v>30.962073588893112</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -4635,7 +4678,7 @@
     </row>
     <row r="27" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="7"/>
@@ -4647,7 +4690,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -4656,12 +4699,12 @@
         <v>0</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -4670,7 +4713,7 @@
     </row>
     <row r="29" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="35">
         <f>_PG1-_PD1</f>
@@ -4681,14 +4724,14 @@
         <v>1.0016729907243307</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="36"/>
     </row>
     <row r="30" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="35">
         <f>_PG2-_PD2</f>
@@ -4699,14 +4742,14 @@
         <v>0.26630464429266221</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="36"/>
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="35">
         <f>_PG3-_PD3</f>
@@ -4717,14 +4760,14 @@
         <v>-1.24999999664991</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M31" s="36"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="35">
         <f>_QG1-_QD1</f>
@@ -4735,7 +4778,7 @@
         <v>-2.0613823024406841E-2</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -4743,7 +4786,7 @@
     </row>
     <row r="33" spans="1:16" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="35">
         <f>_QG2-_QD2</f>
@@ -4755,7 +4798,7 @@
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="7"/>
@@ -4767,7 +4810,7 @@
     <row r="34" spans="1:16" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="35">
         <f>_QG3-_QD3</f>
@@ -4779,7 +4822,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -4802,22 +4845,22 @@
     <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="60"/>
       <c r="B36" s="60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="60" t="s">
         <v>128</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>129</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="60"/>
       <c r="G36" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -4825,7 +4868,7 @@
     </row>
     <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="59">
         <f>E13*H24</f>
@@ -4841,14 +4884,14 @@
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="21">
         <f>_PD3*Sbase*H26</f>
         <v>7740.518397223278</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" s="21">
         <f>G39-B39</f>
@@ -4860,7 +4903,7 @@
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="61">
         <f>E14*H25</f>
@@ -4885,7 +4928,7 @@
     </row>
     <row r="39" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="59">
         <f>SUM(B37:B38)</f>
@@ -4901,14 +4944,14 @@
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" s="21">
         <f>G37</f>
         <v>7740.518397223278</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K39" s="21">
         <f>G39-B39</f>
@@ -4916,7 +4959,7 @@
       </c>
       <c r="L39" s="36"/>
       <c r="M39" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N39" s="77"/>
       <c r="O39" s="78"/>
@@ -4934,7 +4977,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="36"/>
       <c r="M40" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N40" s="77"/>
       <c r="O40" s="79">
@@ -4947,7 +4990,7 @@
     </row>
     <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="62"/>
       <c r="C41" s="7"/>
@@ -4956,12 +4999,12 @@
       <c r="F41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -5002,30 +5045,30 @@
       <c r="J43" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="M43" s="83"/>
+      <c r="L43" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="M43" s="85"/>
     </row>
     <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="60"/>
       <c r="B44" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H44" s="68" t="s">
         <v>1</v>
@@ -5228,17 +5271,17 @@
         <v>53</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="44">
         <v>0</v>
@@ -5255,7 +5298,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5299,7 +5342,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5360,7 +5403,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I55" s="79">
         <f>F55/L49</f>
@@ -5368,7 +5411,7 @@
       </c>
       <c r="J55" s="78"/>
       <c r="K55" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L55" s="80">
         <f>L49</f>
@@ -5402,7 +5445,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G56" s="78"/>
       <c r="H56" s="78"/>
@@ -8143,7 +8186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E4E0DC-F611-534C-B29D-27F4B7B8E407}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -8157,7 +8200,7 @@
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="E3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8168,7 +8211,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8202,10 +8245,10 @@
       <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="86"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
